--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_19.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_19.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N431"/>
+  <dimension ref="A1:N432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5260281562805176</v>
+        <v>0.0009829998016357422</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005449056625366211</v>
+        <v>0.0005931854248046875</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01191401481628418</v>
+        <v>0.0167691707611084</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 3), (3, 4), (0, 4), (1, 3), (3, 2), (3, 0), (2, 0), (2, 2), (2, 3), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [3, 4], [0, 4], [1, 3], [3, 2], [3, 0], [2, 0], [2, 2], [2, 3], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 3), (3, 4), (0, 4), (0, 0), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [3, 4], [0, 4], [0, 0], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 3), (3, 4), (0, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (2, 4)]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [3, 4], [0, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1)]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[(1, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (2, 4), (0, 4), (3, 4), (4, 4), (3, 2), (4, 1)]</t>
+          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[(1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (2, 4), (2, 1), (2, 2), (2, 0), (3, 4), (4, 4), (3, 2), (4, 1)]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [2, 4], [2, 1], [2, 2], [2, 0], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (1, 2), (0, 0), (1, 3), (1, 0), (3, 0), (2, 3), (3, 3), (2, 4), (3, 2), (2, 1), (0, 4), (2, 0), (1, 4), (0, 3), (2, 2), (3, 1)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -3662,110 +3662,120 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>55</v>
+        <v>0.9965887882866716</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>355</v>
+        <v>55</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>7</v>
+        <v>355</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.5789570808410645</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0.06724095344543457</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B431" t="inlineStr">
+      <c r="B432" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr">
+      <c r="C432" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D431" t="inlineStr">
+      <c r="D432" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E431" t="inlineStr">
+      <c r="E432" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F431" t="inlineStr">
+      <c r="F432" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G431" t="inlineStr">
+      <c r="G432" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
+      <c r="H432" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I431" t="inlineStr">
+      <c r="I432" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J431" t="inlineStr">
+      <c r="J432" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K431" t="inlineStr">
+      <c r="K432" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L431" t="inlineStr">
+      <c r="L432" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M431" t="inlineStr">
+      <c r="M432" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N431" t="inlineStr">
+      <c r="N432" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_19.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_19.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N432"/>
+  <dimension ref="A1:N438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0009829998016357422</v>
+        <v>0.0006809234619140625</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005931854248046875</v>
+        <v>0.0005240440368652344</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0167691707611084</v>
+        <v>0.0383751392364502</v>
       </c>
     </row>
     <row r="8">
@@ -1781,11 +1781,6 @@
           <t>[10, 9]</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>[16, 1]</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -1828,11 +1823,6 @@
           <t>[16, 3]</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -1847,11 +1837,6 @@
           <t>[18, 1]</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>[10, 8]</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -1859,11 +1844,6 @@
           <t>[10, 9]</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>[16, 1]</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -1906,11 +1886,6 @@
           <t>[16, 3]</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -1925,787 +1900,782 @@
           <t>[18, 1]</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>[10, 8]</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[9, 8]</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[9, 8]</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>[15, 1]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[9, 7]</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>[15, 1]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[9, 7]</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[4, [2, 3], [2, 0]]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[0, [4, 2], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>[6, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>[12, [2, 1], [0, 3]]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[8, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>[5, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>[2, [3, 3], [2, 3]]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[10, [0, 0], [2, 1]]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>[1, [4, 3], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>[7, [1, 0], [0, 1]]</t>
+          <t>[4, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[13, [2, 2], [2, 4]]</t>
+          <t>[0, [4, 2], [1, 4]]</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[9, [0, 1], [1, 1]]</t>
+          <t>[6, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>[12, [2, 1], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[14, [1, 3], [0, 4]]</t>
+          <t>[8, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>[5, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>[2, [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[3, [2, 4], [1, 2]]</t>
+          <t>[10, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[11, [1, 1], [2, 2]]</t>
+          <t>[1, [4, 3], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>[7, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
+          <t>[13, [2, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>[9, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[14, [1, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[3, [2, 4], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[11, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[8, 7]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>[8, 4]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[8, 7]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>[8, 4]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
@@ -2740,137 +2710,137 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[14, [0, 4], [2, 0]]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[10, [2, 1], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>[5, [1, 0], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>[11, [2, 2], [2, 4]]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>[2, [2, 3], [0, 2]]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>[12, [0, 3], [2, 1]]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>[8, [0, 0], [1, 3]]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[9, [1, 1], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>[4, [2, 0], [1, 0]]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[7, [0, 1], [1, 2]]</t>
+          <t>[14, [0, 4], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>[13, [2, 4], [2, 2]]</t>
+          <t>[10, [2, 1], [2, 3]]</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>[6, [0, 2], [0, 1]]</t>
+          <t>[5, [1, 0], [0, 0]]</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[3, [1, 2], [1, 1]]</t>
+          <t>[11, [2, 2], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[1, [1, 3], [0, 3]]</t>
+          <t>[2, [2, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [2, 4], [2, 1], [2, 2], [2, 0], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
+          <t>[12, [0, 3], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[8, [0, 0], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[9, [1, 1], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>[4, [2, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[7, [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[13, [2, 4], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>[6, [0, 2], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>[3, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[1, [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [2, 4], [2, 1], [2, 2], [2, 0], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -2919,569 +2889,569 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>[10, 8]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[13, [2, 2], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>[18, [4, 1], [3, 1]]</t>
+          <t>[8, 10]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[9, [0, 4], [3, 3]]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>[16, [4, 4], [0, 3]]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>[17, [3, 2], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>[6, [0, 1], [1, 0]]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[15, [3, 4], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>[2, [0, 2], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>[1, [0, 3], [0, 2]]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[0, [1, 4], [1, 1]]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[5, [0, 0], [1, 3]]</t>
+          <t>[13, [2, 2], [0, 4]]</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[10, [2, 3], [2, 4]]</t>
+          <t>[18, [4, 1], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[11, [2, 4], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>[4, [1, 0], [0, 0]]</t>
+          <t>[9, [0, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[8, [1, 3], [2, 3]]</t>
+          <t>[16, [4, 4], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[7, [1, 2], [3, 0]]</t>
+          <t>[17, [3, 2], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>[6, [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[3, [1, 1], [1, 2]]</t>
+          <t>[15, [3, 4], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>[2, [0, 2], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>[1, [0, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
+          <t>[0, [1, 4], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[5, [0, 0], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>[10, [2, 3], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[11, [2, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>[4, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[8, [1, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[7, [1, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[7, 11]</t>
+          <t>[3, [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[8, 10]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[7, 11]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>[7, 11]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[7, 11]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>[5, 13]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
     </row>
@@ -3495,287 +3465,329 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>[4, 14]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>[4, 14]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>[3, 15]</t>
+          <t>[4, 14]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[3, 15]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>[2, 16]</t>
+          <t>[4, 14]</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[3, 15]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[2, 16]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>[1, 17]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>[0, 18]</t>
+          <t>[3, 15]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[2, 16]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>[1, 17]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>[0, 18]</t>
+          <t>[2, 16]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B425" t="n">
-        <v>0.1472826298214475</v>
+          <t>[1, 17]</t>
+        </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B426" t="n">
-        <v>98660.93009754735</v>
+          <t>[0, 18]</t>
+        </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>move_fidelity</t>
-        </is>
-      </c>
-      <c r="B427" t="n">
-        <v>0.9965887882866716</v>
+          <t>[17, 1]</t>
+        </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B428" t="n">
-        <v>55</v>
+          <t>[18, 0]</t>
+        </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B429" t="n">
-        <v>355</v>
+          <t>[1, 17]</t>
+        </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B430" t="n">
-        <v>7</v>
+          <t>[0, 18]</t>
+        </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>Fidelity:</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.06724095344543457</v>
+        <v>0.1472803911424882</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>98683.73009754736</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>0.9965887882866716</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.07320618629455566</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B432" t="inlineStr">
+      <c r="B438" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr">
+      <c r="C438" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D432" t="inlineStr">
+      <c r="D438" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E432" t="inlineStr">
+      <c r="E438" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F432" t="inlineStr">
+      <c r="F438" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G432" t="inlineStr">
+      <c r="G438" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
+      <c r="H438" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I432" t="inlineStr">
+      <c r="I438" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J432" t="inlineStr">
+      <c r="J438" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K432" t="inlineStr">
+      <c r="K438" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L432" t="inlineStr">
+      <c r="L438" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M432" t="inlineStr">
+      <c r="M438" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N432" t="inlineStr">
+      <c r="N438" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
